--- a/IDEARX_PROJECT/Excel/Success_po.xlsx
+++ b/IDEARX_PROJECT/Excel/Success_po.xlsx
@@ -21,7 +21,7 @@
     <t>POID</t>
   </si>
   <si>
-    <t>83272</t>
+    <t>83287</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/IDEARX_PROJECT/Excel/Success_po.xlsx
+++ b/IDEARX_PROJECT/Excel/Success_po.xlsx
@@ -357,7 +357,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/IDEARX_PROJECT/Excel/Success_po.xlsx
+++ b/IDEARX_PROJECT/Excel/Success_po.xlsx
@@ -16,18 +16,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>POID</t>
   </si>
   <si>
-    <t>83287</t>
+    <t>83381</t>
+  </si>
+  <si>
+    <t>83382</t>
+  </si>
+  <si>
+    <t>83383</t>
+  </si>
+  <si>
+    <t>83384</t>
+  </si>
+  <si>
+    <t>83385</t>
+  </si>
+  <si>
+    <t>83386</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -362,7 +378,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="1" max="1" style="1" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -370,9 +386,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="s" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
